--- a/数据整理/stocks/A股/深证主板/000036-华联控股.xlsx
+++ b/数据整理/stocks/A股/深证主板/000036-华联控股.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>22.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.38</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1.60</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3659</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>161907</t>
+          <t>515180</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>万家中证红利指数(LOF)</t>
+          <t>易方达中证红利ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.92</t>
+          <t>13.97</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2361</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501307</t>
+          <t>515080</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>银河中证沪港深高股息指数（LOF）A</t>
+          <t>招商中证红利ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.66</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501308</t>
+          <t>007801</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>银河中证沪港深高股息指数（LOF）C</t>
+          <t>大成中证红利指数C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.66</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007801</t>
+          <t>161907</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>大成中证红利指数C</t>
+          <t>万家中证红利指数(LOF)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.38</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>515080</t>
+          <t>501307</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>招商中证红利ETF</t>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>98.80</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -660,25 +730,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>515180</t>
+          <t>515890</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>易方达中证红利ETF</t>
+          <t>博时中证红利ETF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>98.73</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>6</v>
       </c>
     </row>
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>515890</t>
+          <t>501308</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>博时中证红利ETF</t>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>98.45</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -721,7 +811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,15 +832,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -762,26 +862,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161907</t>
+          <t>090010</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>万家中证红利指数(LOF)</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>95.02</t>
+          <t>23.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3745</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -790,26 +900,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501072</t>
+          <t>515180</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国金标普中国A股低波红利指数增强（LOF）</t>
+          <t>易方达中证红利ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>100.47</t>
+          <t>11.80</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1959</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -818,26 +938,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>515080</t>
+          <t>008114</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>招商中证红利ETF</t>
+          <t>天弘中证红利低波动100指数A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>99.24</t>
+          <t>6.83</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>95.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1427</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -846,25 +976,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>515100</t>
+          <t>008115</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>景顺长城中证红利低波动100ETF</t>
+          <t>天弘中证红利低波动100指数C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>97.42</t>
+          <t>6.45</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>95.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1348</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>5</v>
       </c>
     </row>
@@ -874,26 +1014,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>515180</t>
+          <t>515080</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>易方达中证红利ETF</t>
+          <t>招商中证红利ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>99.03</t>
+          <t>5.18</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>1.66</t>
         </is>
       </c>
-      <c r="F6" t="n">
-        <v>7</v>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -912,15 +1062,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>94.19</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1.67</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>8</v>
       </c>
     </row>
@@ -930,26 +1090,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>515890</t>
+          <t>515100</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>博时中证红利ETF</t>
+          <t>景顺长城中证红利低波动100ETF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>98.94</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>97.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -958,25 +1128,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>090010</t>
+          <t>007801</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>大成中证红利指数A</t>
+          <t>大成中证红利指数C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>94.10</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1.58</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>7</v>
       </c>
     </row>
@@ -986,26 +1166,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>007801</t>
+          <t>161907</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>大成中证红利指数C</t>
+          <t>万家中证红利指数(LOF)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>008114</t>
+          <t>515890</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天弘中证红利低波动100指数A</t>
+          <t>博时中证红利ETF</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>95.58</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>008115</t>
+          <t>501072</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天弘中证红利低波动100指数C</t>
+          <t>国金标普中国A股低波红利指数增强（LOF）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>95.58</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
+          <t>100.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000036-华联控股.xlsx
+++ b/数据整理/stocks/A股/深证主板/000036-华联控股.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1277,4 +1278,478 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4635</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2169</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1232</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>080005</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长盛量化红利混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家中证红利指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>97.41</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501072</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国金标普中国A股低波红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000036-华联控股.xlsx
+++ b/数据整理/stocks/A股/深证主板/000036-华联控股.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1752,4 +1753,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000036-华联控股.xlsx
+++ b/数据整理/stocks/A股/深证主板/000036-华联控股.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1761,7 +1762,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1772,17 +1773,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1792,14 +1813,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.04</v>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3957</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1808,14 +1851,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2030</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1824,13 +1889,211 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1218</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>8</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.7</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000036-华联控股.xlsx
+++ b/数据整理/stocks/A股/深证主板/000036-华联控股.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2008,7 +2009,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2019,17 +2020,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2039,14 +2060,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.75</v>
+          <t>014125</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2055,14 +2098,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>014126</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>1.04</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="4">
@@ -2071,14 +2204,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="5">
@@ -2087,13 +2220,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>8</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.7</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000036-华联控股.xlsx
+++ b/数据整理/stocks/A股/深证主板/000036-华联控股.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2141,7 +2142,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2152,17 +2153,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2172,14 +2193,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.11</v>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4325</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2188,14 +2231,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.75</v>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2934</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2204,14 +2269,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.04</v>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1386</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2220,14 +2307,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -2236,13 +2345,243 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501308</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>8</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.7</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000036-华联控股.xlsx
+++ b/数据整理/stocks/A股/深证主板/000036-华联控股.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,357 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>090010</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>大成中证红利指数A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>22.87</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.38</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3659</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>515180</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>易方达中证红利ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>13.97</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>98.73</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2361</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>515080</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>招商中证红利ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>98.80</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0723</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007801</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>大成中证红利指数C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.38</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0085</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.04</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>161907</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>万家中证红利指数(LOF)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.92</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0072</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>501307</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>银河中证沪港深高股息指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.66</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0061</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>515890</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>博时中证红利ETF</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>98.45</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0058</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>501308</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>银河中证沪港深高股息指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.66</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -816,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -837,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -877,26 +649,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23.70</t>
+          <t>30.46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>93.54</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3745</t>
+          <t>0.4325</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -915,26 +687,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11.80</t>
+          <t>19.43</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>99.03</t>
+          <t>99.39</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1959</t>
+          <t>0.2934</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -943,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008114</t>
+          <t>515080</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天弘中证红利低波动100指数A</t>
+          <t>招商中证红利ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.83</t>
+          <t>9.24</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>95.58</t>
+          <t>99.72</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1427</t>
+          <t>0.1386</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -981,36 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008115</t>
+          <t>515890</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天弘中证红利低波动100指数C</t>
+          <t>博时中证红利ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.45</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>95.58</t>
+          <t>98.17</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1348</t>
+          <t>0.0410</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1019,36 +791,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>515080</t>
+          <t>007801</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>招商中证红利ETF</t>
+          <t>大成中证红利指数C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.18</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>99.24</t>
+          <t>93.54</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0860</t>
+          <t>0.0322</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1057,36 +829,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>080005</t>
+          <t>501307</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>长盛量化红利混合</t>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>1.52</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.19</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0254</t>
+          <t>0.0029</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1095,188 +867,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>515100</t>
+          <t>501308</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>景顺长城中证红利低波动100ETF</t>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>97.42</t>
+          <t>92.29</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0197</t>
+          <t>0.0002</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>007801</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>大成中证红利指数C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.10</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0084</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>161907</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>万家中证红利指数(LOF)</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>95.02</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0070</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
         <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>515890</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>博时中证红利ETF</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>98.94</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0040</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>501072</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>国金标普中国A股低波红利指数增强（LOF）</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>100.47</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1290,7 +910,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1311,7 +931,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1341,36 +961,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>090010</t>
+          <t>014125</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大成中证红利指数A</t>
+          <t>华夏中证1000指数增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>28.09</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>89.75</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4635</t>
+          <t>0.0612</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1379,378 +999,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>515180</t>
+          <t>014126</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达中证红利ETF</t>
+          <t>华夏中证1000指数增强C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12.54</t>
+          <t>6.09</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.97</t>
+          <t>89.75</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2169</t>
+          <t>0.0530</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>515080</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>招商中证红利ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7.12</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>98.82</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1232</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008114</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>天弘中证红利低波动100指数A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.98</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0611</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008115</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>天弘中证红利低波动100指数C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.98</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0505</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>080005</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>长盛量化红利混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.06</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0501</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>161907</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>万家中证红利指数(LOF)</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.82</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0328</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>515100</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>景顺长城中证红利低波动100ETF</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>98.22</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0275</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>007801</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>大成中证红利指数C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.97</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0117</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>515890</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>博时中证红利ETF</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>97.41</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0041</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>501072</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>国金标普中国A股低波红利指数增强（LOF）</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>89.12</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2010,7 +1288,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2031,7 +1309,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2061,36 +1339,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>014125</t>
+          <t>090010</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏中证1000指数增强A</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.03</t>
+          <t>28.09</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.75</t>
+          <t>93.97</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0612</t>
+          <t>0.4635</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2099,36 +1377,378 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>014126</t>
+          <t>515180</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏中证1000指数增强C</t>
+          <t>易方达中证红利ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.09</t>
+          <t>12.54</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.75</t>
+          <t>98.97</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0530</t>
+          <t>0.2169</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1232</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>080005</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长盛量化红利混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家中证红利指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>97.41</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501072</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国金标普中国A股低波红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2142,7 +1762,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2163,7 +1783,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2203,26 +1823,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>30.46</t>
+          <t>23.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.54</t>
+          <t>94.10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4325</t>
+          <t>0.3745</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2241,26 +1861,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>19.43</t>
+          <t>11.80</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>99.39</t>
+          <t>99.03</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2934</t>
+          <t>0.1959</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2269,36 +1889,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>515080</t>
+          <t>008114</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>招商中证红利ETF</t>
+          <t>天弘中证红利低波动100指数A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.24</t>
+          <t>6.83</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>99.72</t>
+          <t>95.58</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1386</t>
+          <t>0.1427</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2307,36 +1927,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>515890</t>
+          <t>008115</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博时中证红利ETF</t>
+          <t>天弘中证红利低波动100指数C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>6.45</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>98.17</t>
+          <t>95.58</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0410</t>
+          <t>0.1348</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -2345,36 +1965,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007801</t>
+          <t>515080</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>大成中证红利指数C</t>
+          <t>招商中证红利ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>5.18</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.54</t>
+          <t>99.24</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0322</t>
+          <t>0.0860</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -2383,36 +2003,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>501307</t>
+          <t>080005</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>银河中证沪港深高股息指数（LOF）A</t>
+          <t>长盛量化红利混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.29</t>
+          <t>94.19</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0029</t>
+          <t>0.0254</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -2421,36 +2041,188 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>501308</t>
+          <t>515100</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>银河中证沪港深高股息指数（LOF）C</t>
+          <t>景顺长城中证红利低波动100ETF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.29</t>
+          <t>97.42</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0002</t>
+          <t>0.0197</t>
         </is>
       </c>
       <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家中证红利指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501072</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国金标普中国A股低波红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>100.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2464,128 +2236,356 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3659</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2361</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家中证红利指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501308</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>5</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>8</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.7</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000036-华联控股.xlsx
+++ b/数据整理/stocks/A股/深证主板/000036-华联控股.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.11</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.75</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>1.04</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>8</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.7</v>
       </c>
     </row>
@@ -583,6 +600,404 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3946</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2706</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1333</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家中证红利指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015558</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家中证红利指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501308</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -904,7 +1319,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1036,7 +1451,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1275,480 +1690,6 @@
       </c>
       <c r="H6" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>090010</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>大成中证红利指数A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>28.09</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.97</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4635</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>515180</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>易方达中证红利ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>12.54</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>98.97</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2169</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>515080</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>招商中证红利ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7.12</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>98.82</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1232</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008114</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>天弘中证红利低波动100指数A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.98</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0611</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008115</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>天弘中证红利低波动100指数C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.98</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0505</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>080005</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>长盛量化红利混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.06</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0501</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>161907</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>万家中证红利指数(LOF)</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.82</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0328</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>515100</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>景顺长城中证红利低波动100ETF</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>98.22</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0275</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>007801</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>大成中证红利指数C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.97</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0117</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>515890</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>博时中证红利ETF</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>97.41</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0041</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>501072</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>国金标普中国A股低波红利指数增强（LOF）</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>89.12</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1823,26 +1764,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23.70</t>
+          <t>28.09</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>93.97</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3745</t>
+          <t>0.4635</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1861,26 +1802,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11.80</t>
+          <t>12.54</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>99.03</t>
+          <t>98.97</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1959</t>
+          <t>0.2169</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1889,36 +1830,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008114</t>
+          <t>515080</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天弘中证红利低波动100指数A</t>
+          <t>招商中证红利ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.83</t>
+          <t>7.12</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>95.58</t>
+          <t>98.82</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1427</t>
+          <t>0.1232</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1927,36 +1868,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008115</t>
+          <t>008114</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天弘中证红利低波动100指数C</t>
+          <t>天弘中证红利低波动100指数A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.45</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>95.58</t>
+          <t>94.98</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1348</t>
+          <t>0.0611</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1965,36 +1906,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>515080</t>
+          <t>008115</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>招商中证红利ETF</t>
+          <t>天弘中证红利低波动100指数C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.18</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>99.24</t>
+          <t>94.98</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0860</t>
+          <t>0.0505</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -2013,26 +1954,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>93.06</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0254</t>
+          <t>0.0501</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -2041,36 +1982,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>515100</t>
+          <t>161907</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>景顺长城中证红利低波动100ETF</t>
+          <t>万家中证红利指数(LOF)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>97.42</t>
+          <t>94.82</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0197</t>
+          <t>0.0328</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -2079,36 +2020,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>007801</t>
+          <t>515100</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>大成中证红利指数C</t>
+          <t>景顺长城中证红利低波动100ETF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>98.22</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0084</t>
+          <t>0.0275</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -2117,36 +2058,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>161907</t>
+          <t>007801</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>万家中证红利指数(LOF)</t>
+          <t>大成中证红利指数C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>95.02</t>
+          <t>93.97</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0070</t>
+          <t>0.0117</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -2170,21 +2111,21 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>98.94</t>
+          <t>97.41</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0040</t>
+          <t>0.0041</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -2208,21 +2149,21 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>100.47</t>
+          <t>89.12</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0003</t>
+          <t>0.0004</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2231,6 +2172,480 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3745</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1959</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1427</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1348</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>080005</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长盛量化红利混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家中证红利指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501072</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国金标普中国A股低波红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>100.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
